--- a/doc/screens.xlsx
+++ b/doc/screens.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="465" yWindow="120" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2734,8 +2734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="M59" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
